--- a/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC55461C-F46C-42B0-956E-0C35B8F9F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34573369-44EB-4971-B083-823856C32BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7728607-71B0-444A-B9A8-1E337B6E58F9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB59B1F9-E042-4B7A-BA9C-C0E9D101B0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="182">
   <si>
     <t>Población según si es capaz de usar medios de transporte en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
@@ -74,520 +74,511 @@
     <t>10,86%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>5,1%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>71,95%</t>
   </si>
   <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>77,03%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1002,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AAAF24-F1E1-4465-81F4-1F4E9B8B62A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1BEB26-C906-403E-9834-287AC66A31EB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1485,13 +1476,13 @@
         <v>3315</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1500,13 +1491,13 @@
         <v>3220</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -1515,13 +1506,13 @@
         <v>6535</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,13 +1527,13 @@
         <v>7388</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -1551,13 +1542,13 @@
         <v>9702</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -1566,13 +1557,13 @@
         <v>17090</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,13 +1578,13 @@
         <v>11654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -1602,13 +1593,13 @@
         <v>17734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -1617,13 +1608,13 @@
         <v>29388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,13 +1629,13 @@
         <v>265689</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>451</v>
@@ -1653,13 +1644,13 @@
         <v>346655</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>834</v>
@@ -1668,13 +1659,13 @@
         <v>612344</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,7 +1721,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1742,13 +1733,13 @@
         <v>1681</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1757,13 +1748,13 @@
         <v>654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1772,13 +1763,13 @@
         <v>2335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1793,13 +1784,13 @@
         <v>2298</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1808,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1823,13 +1814,13 @@
         <v>2298</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,13 +1835,13 @@
         <v>570</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1859,13 +1850,13 @@
         <v>3904</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1874,13 +1865,13 @@
         <v>4475</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,13 +1886,13 @@
         <v>1297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -1910,13 +1901,13 @@
         <v>3065</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -1925,13 +1916,13 @@
         <v>4362</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1937,13 @@
         <v>106139</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -1961,13 +1952,13 @@
         <v>70622</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>298</v>
@@ -1976,13 +1967,13 @@
         <v>176762</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2041,13 @@
         <v>39323</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -2065,13 +2056,13 @@
         <v>97121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -2080,13 +2071,13 @@
         <v>136444</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2092,13 @@
         <v>12386</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -2116,13 +2107,13 @@
         <v>33769</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -2131,13 +2122,13 @@
         <v>46155</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2143,13 @@
         <v>24072</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>124</v>
@@ -2167,13 +2158,13 @@
         <v>72004</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>158</v>
@@ -2182,13 +2173,13 @@
         <v>96076</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,13 +2194,13 @@
         <v>31672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>152</v>
@@ -2218,13 +2209,13 @@
         <v>82657</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>200</v>
@@ -2233,13 +2224,13 @@
         <v>114329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,13 +2245,13 @@
         <v>585615</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>1169</v>
@@ -2269,13 +2260,13 @@
         <v>732584</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>2025</v>
@@ -2284,13 +2275,13 @@
         <v>1318199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,7 +2337,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34573369-44EB-4971-B083-823856C32BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7043D258-A891-42F7-BFCF-90832417F208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB59B1F9-E042-4B7A-BA9C-C0E9D101B0B1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B766236-4113-4D38-8E73-484C01457CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1BEB26-C906-403E-9834-287AC66A31EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E96919-59C9-48C6-ABA2-3CFBB2E9B87E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7043D258-A891-42F7-BFCF-90832417F208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2622FD3F-767C-4287-91D0-BEAE47AE1FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B766236-4113-4D38-8E73-484C01457CAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{795D9CB0-1806-42B6-807B-69A14A484600}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
   <si>
     <t>Población según si es capaz de usar medios de transporte en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,86%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
@@ -104,388 +104,403 @@
     <t>2,36%</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>3,32%</t>
@@ -494,91 +509,85 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>6,56%</t>
+    <t>6,61%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>71,95%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>77,03%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -993,7 +1002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E96919-59C9-48C6-ABA2-3CFBB2E9B87E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48948506-402C-4D96-BEB0-9C63418BF86D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1476,13 +1485,13 @@
         <v>3315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1491,13 +1500,13 @@
         <v>3220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -1506,13 +1515,13 @@
         <v>6535</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,13 +1536,13 @@
         <v>7388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -1542,13 +1551,13 @@
         <v>9702</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -1557,13 +1566,13 @@
         <v>17090</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,13 +1587,13 @@
         <v>11654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -1593,13 +1602,13 @@
         <v>17734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -1608,13 +1617,13 @@
         <v>29388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,13 +1638,13 @@
         <v>265689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>451</v>
@@ -1644,13 +1653,13 @@
         <v>346655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>834</v>
@@ -1659,13 +1668,13 @@
         <v>612344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,7 +1730,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1733,13 +1742,13 @@
         <v>1681</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1748,13 +1757,13 @@
         <v>654</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1763,13 +1772,13 @@
         <v>2335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1793,13 @@
         <v>2298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1799,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1814,13 +1823,13 @@
         <v>2298</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,13 +1844,13 @@
         <v>570</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1850,13 +1859,13 @@
         <v>3904</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1865,13 +1874,13 @@
         <v>4475</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1895,13 @@
         <v>1297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -1901,13 +1910,13 @@
         <v>3065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -1916,13 +1925,13 @@
         <v>4362</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1946,13 @@
         <v>106139</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -1952,13 +1961,13 @@
         <v>70622</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>298</v>
@@ -1967,13 +1976,13 @@
         <v>176762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2050,13 @@
         <v>39323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -2056,13 +2065,13 @@
         <v>97121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -2071,13 +2080,13 @@
         <v>136444</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2101,13 @@
         <v>12386</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -2107,13 +2116,13 @@
         <v>33769</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -2122,13 +2131,13 @@
         <v>46155</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2152,13 @@
         <v>24072</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>124</v>
@@ -2158,13 +2167,13 @@
         <v>72004</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>158</v>
@@ -2173,13 +2182,13 @@
         <v>96076</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2203,13 @@
         <v>31672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>152</v>
@@ -2209,13 +2218,13 @@
         <v>82657</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>200</v>
@@ -2224,13 +2233,13 @@
         <v>114329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2254,13 @@
         <v>585615</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>1169</v>
@@ -2260,13 +2269,13 @@
         <v>732584</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>2025</v>
@@ -2275,13 +2284,13 @@
         <v>1318199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2346,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2622FD3F-767C-4287-91D0-BEAE47AE1FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9035C7E1-E967-41A6-B9C8-E8D4835C84C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{795D9CB0-1806-42B6-807B-69A14A484600}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7CCB49CD-178C-4CA1-A786-E4B3C948393D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,523 +71,523 @@
     <t>No viaja en absoluto</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
   </si>
   <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
     <t>2,36%</t>
   </si>
   <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1002,7 +1002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48948506-402C-4D96-BEB0-9C63418BF86D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33684746-CE27-4C9E-BBB3-B95FD788E923}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1123,7 +1123,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="7">
-        <v>31121</v>
+        <v>29231</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1138,7 +1138,7 @@
         <v>173</v>
       </c>
       <c r="I4" s="7">
-        <v>87356</v>
+        <v>79209</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1153,7 +1153,7 @@
         <v>226</v>
       </c>
       <c r="N4" s="7">
-        <v>118477</v>
+        <v>108441</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1174,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>6773</v>
+        <v>6595</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>52</v>
       </c>
       <c r="I5" s="7">
-        <v>30549</v>
+        <v>27427</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1204,7 +1204,7 @@
         <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>37323</v>
+        <v>34022</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1225,7 +1225,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="7">
-        <v>16113</v>
+        <v>15563</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1240,7 +1240,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="7">
-        <v>58398</v>
+        <v>53010</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1255,7 +1255,7 @@
         <v>123</v>
       </c>
       <c r="N6" s="7">
-        <v>74512</v>
+        <v>68574</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1276,7 +1276,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>18721</v>
+        <v>17090</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1291,82 +1291,82 @@
         <v>110</v>
       </c>
       <c r="I7" s="7">
-        <v>61859</v>
+        <v>53958</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
       </c>
       <c r="N7" s="7">
-        <v>80579</v>
+        <v>71048</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>313</v>
       </c>
       <c r="D8" s="7">
-        <v>213788</v>
+        <v>199906</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>580</v>
       </c>
       <c r="I8" s="7">
-        <v>315306</v>
+        <v>285228</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
       </c>
       <c r="N8" s="7">
-        <v>529093</v>
+        <v>485133</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,51 +1378,51 @@
         <v>427</v>
       </c>
       <c r="D9" s="7">
-        <v>286516</v>
+        <v>268386</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1015</v>
       </c>
       <c r="I9" s="7">
-        <v>553468</v>
+        <v>498833</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1442</v>
       </c>
       <c r="N9" s="7">
-        <v>839984</v>
+        <v>767218</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1431,25 +1431,25 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>6520</v>
+        <v>5950</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>9112</v>
+        <v>8299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>65</v>
@@ -1461,7 +1461,7 @@
         <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>15631</v>
+        <v>14249</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1482,46 +1482,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3315</v>
+        <v>3259</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>3220</v>
+        <v>2933</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>6535</v>
+        <v>6193</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,46 +1533,46 @@
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>7388</v>
+        <v>7000</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
       </c>
       <c r="I12" s="7">
-        <v>9702</v>
+        <v>8651</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
       </c>
       <c r="N12" s="7">
-        <v>17090</v>
+        <v>15651</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,58 +1584,58 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>11654</v>
+        <v>10940</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>17734</v>
+        <v>15971</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
       </c>
       <c r="N13" s="7">
-        <v>29388</v>
+        <v>26911</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>383</v>
       </c>
       <c r="D14" s="7">
-        <v>265689</v>
+        <v>246108</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>94</v>
@@ -1650,7 +1650,7 @@
         <v>451</v>
       </c>
       <c r="I14" s="7">
-        <v>346655</v>
+        <v>419885</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>97</v>
@@ -1665,7 +1665,7 @@
         <v>834</v>
       </c>
       <c r="N14" s="7">
-        <v>612344</v>
+        <v>665994</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>100</v>
@@ -1686,46 +1686,46 @@
         <v>426</v>
       </c>
       <c r="D15" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>529</v>
       </c>
       <c r="I15" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>955</v>
       </c>
       <c r="N15" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1681</v>
+        <v>1449</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>104</v>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>654</v>
+        <v>601</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>107</v>
@@ -1769,13 +1769,13 @@
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>2335</v>
+        <v>2050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>110</v>
@@ -1790,16 +1790,16 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2298</v>
+        <v>2098</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1811,25 +1811,25 @@
         <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2298</v>
+        <v>2098</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,46 +1841,46 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>3904</v>
+        <v>3637</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>4475</v>
+        <v>4175</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,97 +1892,97 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1297</v>
+        <v>1164</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>3065</v>
+        <v>2782</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>4362</v>
+        <v>3946</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>160</v>
       </c>
       <c r="D20" s="7">
-        <v>106139</v>
+        <v>99737</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
       </c>
       <c r="I20" s="7">
-        <v>70622</v>
+        <v>64305</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>298</v>
       </c>
       <c r="N20" s="7">
-        <v>176762</v>
+        <v>164042</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,46 +1994,46 @@
         <v>168</v>
       </c>
       <c r="D21" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
       </c>
       <c r="I21" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>320</v>
       </c>
       <c r="N21" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,46 +2047,46 @@
         <v>65</v>
       </c>
       <c r="D22" s="7">
-        <v>39323</v>
+        <v>36631</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
       </c>
       <c r="I22" s="7">
-        <v>97121</v>
+        <v>88109</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
       </c>
       <c r="N22" s="7">
-        <v>136444</v>
+        <v>124739</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,46 +2098,46 @@
         <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>12386</v>
+        <v>11952</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>59</v>
+      </c>
+      <c r="I23" s="7">
+        <v>30360</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H23" s="7">
-        <v>59</v>
-      </c>
-      <c r="I23" s="7">
-        <v>33769</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
       </c>
       <c r="N23" s="7">
-        <v>46155</v>
+        <v>42312</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,46 +2149,46 @@
         <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>24072</v>
+        <v>23102</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>124</v>
       </c>
       <c r="I24" s="7">
-        <v>72004</v>
+        <v>65298</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>158</v>
       </c>
       <c r="N24" s="7">
-        <v>96076</v>
+        <v>88400</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,40 +2200,40 @@
         <v>48</v>
       </c>
       <c r="D25" s="7">
-        <v>31672</v>
+        <v>29194</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>152</v>
       </c>
       <c r="I25" s="7">
-        <v>82657</v>
+        <v>72711</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>200</v>
       </c>
       <c r="N25" s="7">
-        <v>114329</v>
+        <v>101905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>173</v>
@@ -2245,13 +2245,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>856</v>
       </c>
       <c r="D26" s="7">
-        <v>585615</v>
+        <v>545751</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>175</v>
@@ -2266,7 +2266,7 @@
         <v>1169</v>
       </c>
       <c r="I26" s="7">
-        <v>732584</v>
+        <v>769419</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>178</v>
@@ -2281,7 +2281,7 @@
         <v>2025</v>
       </c>
       <c r="N26" s="7">
-        <v>1318199</v>
+        <v>1315169</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>181</v>
@@ -2302,46 +2302,46 @@
         <v>1021</v>
       </c>
       <c r="D27" s="7">
-        <v>693068</v>
+        <v>646628</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1696</v>
       </c>
       <c r="I27" s="7">
-        <v>1018135</v>
+        <v>1025897</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2717</v>
       </c>
       <c r="N27" s="7">
-        <v>1711203</v>
+        <v>1672525</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
